--- a/CP/results.xlsx
+++ b/CP/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MP Star\AI(Bologna)\year1-sem2\Combinatorial Decision-making\Combinatorial-Decision-Making-and-Optimization-Project\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAEFEC3-37F1-45D8-ABC0-7EEC9DD88762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2CC84C-4324-44A1-8A2D-7E591880D515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>* input_order indomain_min restart_none Chuffed</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>avareg time</t>
+  </si>
+  <si>
+    <t>* (sorted by area) indomain_order restart_luby Chuffed rotation</t>
   </si>
 </sst>
 </file>
@@ -497,15 +500,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP6"/>
+  <dimension ref="A1:AP7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AN6" sqref="AN6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.77734375" customWidth="1"/>
+    <col min="1" max="1" width="56.44140625" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -768,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B6" si="0">AVERAGE(C3:AP3)</f>
+        <f t="shared" ref="B3:B7" si="0">AVERAGE(C3:AP3)</f>
         <v>38540</v>
       </c>
       <c r="C3">
@@ -1277,6 +1280,135 @@
       </c>
       <c r="AP6">
         <v>300510</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>61024.25</v>
+      </c>
+      <c r="C7">
+        <v>280</v>
+      </c>
+      <c r="D7">
+        <v>290</v>
+      </c>
+      <c r="E7">
+        <v>290</v>
+      </c>
+      <c r="F7">
+        <v>310</v>
+      </c>
+      <c r="G7">
+        <v>320</v>
+      </c>
+      <c r="H7">
+        <v>310</v>
+      </c>
+      <c r="I7">
+        <v>330</v>
+      </c>
+      <c r="J7">
+        <v>370</v>
+      </c>
+      <c r="K7">
+        <v>330</v>
+      </c>
+      <c r="L7">
+        <v>560</v>
+      </c>
+      <c r="M7">
+        <v>1760</v>
+      </c>
+      <c r="N7">
+        <v>1070</v>
+      </c>
+      <c r="O7">
+        <v>790</v>
+      </c>
+      <c r="P7">
+        <v>900</v>
+      </c>
+      <c r="Q7">
+        <v>1160</v>
+      </c>
+      <c r="R7">
+        <v>16660</v>
+      </c>
+      <c r="S7">
+        <v>1840</v>
+      </c>
+      <c r="T7">
+        <v>17950</v>
+      </c>
+      <c r="U7">
+        <v>4930</v>
+      </c>
+      <c r="V7">
+        <v>64860</v>
+      </c>
+      <c r="W7">
+        <v>31130</v>
+      </c>
+      <c r="X7">
+        <v>46100</v>
+      </c>
+      <c r="Y7">
+        <v>9830</v>
+      </c>
+      <c r="Z7">
+        <v>1100</v>
+      </c>
+      <c r="AA7">
+        <v>300330</v>
+      </c>
+      <c r="AB7">
+        <v>32390</v>
+      </c>
+      <c r="AC7">
+        <v>90560</v>
+      </c>
+      <c r="AD7">
+        <v>20720</v>
+      </c>
+      <c r="AE7">
+        <v>37140</v>
+      </c>
+      <c r="AF7">
+        <v>300270</v>
+      </c>
+      <c r="AG7">
+        <v>8880</v>
+      </c>
+      <c r="AH7">
+        <v>300150</v>
+      </c>
+      <c r="AI7">
+        <v>4210</v>
+      </c>
+      <c r="AJ7">
+        <v>1800</v>
+      </c>
+      <c r="AK7">
+        <v>1770</v>
+      </c>
+      <c r="AL7">
+        <v>1880</v>
+      </c>
+      <c r="AM7">
+        <v>300290</v>
+      </c>
+      <c r="AN7">
+        <v>236140</v>
+      </c>
+      <c r="AO7">
+        <v>300330</v>
+      </c>
+      <c r="AP7">
+        <v>300640</v>
       </c>
     </row>
   </sheetData>
